--- a/Chonqqing Power Grid/data-files/2014年协议库存用量统计.xlsx
+++ b/Chonqqing Power Grid/data-files/2014年协议库存用量统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12516" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12516" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用金额" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>大修</t>
   </si>
@@ -55,9 +55,6 @@
     <t>应急</t>
   </si>
   <si>
-    <t>运维</t>
-  </si>
-  <si>
     <t>0.4千伏双电源切换箱</t>
   </si>
   <si>
@@ -221,10 +218,6 @@
   </si>
   <si>
     <t>剩余电流动作保护器</t>
-  </si>
-  <si>
-    <t>铅封</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>运维及成本</t>
@@ -232,6 +225,10 @@
   </si>
   <si>
     <t>行标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维及成本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -298,9 +295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -619,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -641,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -677,12 +671,12 @@
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -707,46 +701,46 @@
         <v>97500.08</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5">
         <v>14274</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>55800.08</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>67426.289999999994</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>556455.44000000006</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>9301.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>379027.08</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
         <v>42771.229999999996</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10">
         <v>1094391.8700000003</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>167061.53999999998</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>24800.02</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
         <v>2030563.62</v>
@@ -781,7 +775,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>9090221.040000001</v>
@@ -818,7 +812,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>2774681.9800000009</v>
@@ -853,7 +847,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -882,7 +876,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
@@ -909,7 +903,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -936,7 +930,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
@@ -963,7 +957,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>5221161.6300000045</v>
@@ -996,7 +990,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
@@ -1025,7 +1019,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>3243881.0600000005</v>
@@ -1060,7 +1054,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>765342.21000000043</v>
@@ -1095,7 +1089,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -1124,7 +1118,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
@@ -1151,7 +1145,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>26118</v>
@@ -1182,7 +1176,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>608398.24</v>
@@ -1213,7 +1207,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>323362.26</v>
@@ -1240,7 +1234,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>483999.99</v>
@@ -1271,7 +1265,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>1784153.9999999991</v>
@@ -1306,7 +1300,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2">
         <v>5562.1200000000008</v>
@@ -1337,7 +1331,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>567423.34999999963</v>
@@ -1368,7 +1362,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>28454.530000000006</v>
@@ -1403,7 +1397,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>1090468.08</v>
@@ -1434,7 +1428,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>2471933.7399999998</v>
@@ -1471,7 +1465,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>203.58</v>
@@ -1502,7 +1496,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -1529,7 +1523,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>238801.91</v>
@@ -1560,7 +1554,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>1333917.1300000001</v>
@@ -1595,7 +1589,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2">
         <v>71258.27</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2">
         <v>13912.47</v>
@@ -1659,7 +1653,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
         <v>757947.06000000017</v>
@@ -1696,7 +1690,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>12208.049999999997</v>
@@ -1731,7 +1725,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -1764,7 +1758,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2">
         <v>108646.39</v>
@@ -1818,7 +1812,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
         <v>6693574.5599999856</v>
@@ -1853,7 +1847,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>14780069.739999991</v>
@@ -1886,7 +1880,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>159843.58999999997</v>
@@ -1921,7 +1915,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2">
         <v>115990.06999999999</v>
@@ -1952,7 +1946,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>43634.879999999997</v>
@@ -1983,7 +1977,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>6799964.6299999924</v>
@@ -2020,7 +2014,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
@@ -2045,7 +2039,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
         <v>50952.33</v>
@@ -2078,7 +2072,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2099,7 +2093,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2">
         <v>8498.64</v>
@@ -2124,7 +2118,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2">
@@ -2147,7 +2141,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2">
         <v>1868050.0799999994</v>
@@ -2184,7 +2178,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
         <v>11525800.330000009</v>
@@ -2221,7 +2215,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
@@ -2250,7 +2244,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2">
         <v>26447.31</v>
@@ -2283,7 +2277,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
@@ -2312,7 +2306,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
@@ -2333,7 +2327,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2">
         <v>13951746.160000019</v>
@@ -2366,17 +2360,6 @@
       </c>
       <c r="M55" s="2">
         <v>49516022.580000117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="6">
-        <v>2761557.0839999998</v>
-      </c>
-      <c r="M56" s="6">
-        <v>8131.5</v>
       </c>
     </row>
   </sheetData>
@@ -2387,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2390,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2443,12 +2426,12 @@
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -2473,46 +2456,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>45</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>256</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>6</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>231</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <v>10</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>168</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>28</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
         <v>4.2909999999999995</v>
@@ -2547,7 +2530,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>380287</v>
@@ -2584,7 +2567,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>7210</v>
@@ -2619,7 +2602,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
@@ -2646,7 +2629,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
@@ -2673,7 +2656,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
@@ -2700,7 +2683,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
@@ -2728,7 +2711,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>3592</v>
@@ -2761,7 +2744,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
@@ -2790,7 +2773,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>294.11599999999999</v>
@@ -2825,7 +2808,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>8071</v>
@@ -2860,7 +2843,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -2889,7 +2872,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
@@ -2916,7 +2899,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2947,7 +2930,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>26</v>
@@ -2978,7 +2961,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
@@ -3005,7 +2988,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>20</v>
@@ -3036,7 +3019,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>577475</v>
@@ -3071,7 +3054,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2">
         <v>123</v>
@@ -3102,7 +3085,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>2701</v>
@@ -3133,7 +3116,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>1389</v>
@@ -3168,7 +3151,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>115</v>
@@ -3199,7 +3182,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>22.510999999999999</v>
@@ -3236,7 +3219,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -3267,7 +3250,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -3294,7 +3277,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>15.6</v>
@@ -3325,7 +3308,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>438</v>
@@ -3360,7 +3343,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -3393,7 +3376,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2">
         <v>550</v>
@@ -3424,7 +3407,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
         <v>885</v>
@@ -3461,7 +3444,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>2112</v>
@@ -3496,7 +3479,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -3529,7 +3512,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3552,7 +3535,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2">
         <v>227</v>
@@ -3583,7 +3566,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
         <v>550.11800000000005</v>
@@ -3618,7 +3601,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
         <v>3164.6429999999959</v>
@@ -3651,7 +3634,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>12141</v>
@@ -3686,7 +3669,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2">
         <v>930</v>
@@ -3717,7 +3700,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
         <v>51</v>
@@ -3748,7 +3731,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>308565</v>
@@ -3785,7 +3768,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
@@ -3810,7 +3793,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
         <v>8.8000000000000007</v>
@@ -3843,7 +3826,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3864,7 +3847,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2">
         <v>10</v>
@@ -3889,7 +3872,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2">
@@ -3912,7 +3895,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2">
         <v>9755</v>
@@ -3949,7 +3932,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
         <v>841873.5</v>
@@ -3986,7 +3969,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
@@ -4015,7 +3998,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2">
         <v>341</v>
@@ -4048,7 +4031,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
@@ -4077,7 +4060,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
@@ -4098,7 +4081,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2">
         <v>6699</v>
@@ -4131,17 +4114,6 @@
       </c>
       <c r="M55" s="2">
         <v>24673</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="6">
-        <v>4001085</v>
-      </c>
-      <c r="M56" s="6">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
